--- a/AgingMatured.xlsx
+++ b/AgingMatured.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Cust ID</t>
   </si>
@@ -79,12 +79,12 @@
     <t>90000042577</t>
   </si>
   <si>
-    <t>90000002286</t>
-  </si>
-  <si>
     <t>18030100574</t>
   </si>
   <si>
+    <t>18010119160</t>
+  </si>
+  <si>
     <t>Shanti Pharmacy</t>
   </si>
   <si>
@@ -121,12 +121,12 @@
     <t>Akota General Private Hospital</t>
   </si>
   <si>
-    <t>Meghna General Hospital</t>
-  </si>
-  <si>
     <t>Anika Medicine Corner</t>
   </si>
   <si>
+    <t>Al Modina Pharmacy</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kalie Sree Para B Baria                                     </t>
   </si>
   <si>
@@ -163,12 +163,12 @@
     <t xml:space="preserve">Basail Narsingdi                                            </t>
   </si>
   <si>
-    <t xml:space="preserve">New Towon                                                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Satirpara Narsingdi                                         </t>
   </si>
   <si>
+    <t xml:space="preserve">Station Road Narshingdi                                     </t>
+  </si>
+  <si>
     <t xml:space="preserve">BB71                                                        </t>
   </si>
   <si>
@@ -193,9 +193,6 @@
     <t xml:space="preserve">BB11                                                        </t>
   </si>
   <si>
-    <t xml:space="preserve">BB31                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKINV180-382188     </t>
   </si>
   <si>
@@ -232,12 +229,12 @@
     <t xml:space="preserve">SKINV180-394698     </t>
   </si>
   <si>
-    <t xml:space="preserve">SKINV180-381233     </t>
-  </si>
-  <si>
     <t xml:space="preserve">SKINV180-382451     </t>
   </si>
   <si>
+    <t xml:space="preserve">SKINV180-388541     </t>
+  </si>
+  <si>
     <t>02 Sep 2020</t>
   </si>
   <si>
@@ -265,7 +262,7 @@
     <t>04 Oct 2020</t>
   </si>
   <si>
-    <t>30 Aug 2020</t>
+    <t>18 Sep 2020</t>
   </si>
 </sst>
 </file>
@@ -687,16 +684,16 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2">
         <v>19824.04</v>
@@ -719,16 +716,16 @@
         <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3">
         <v>30</v>
       </c>
       <c r="I3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <v>14783.35</v>
@@ -751,16 +748,16 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4">
         <v>45</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J4">
         <v>14946.69</v>
@@ -783,16 +780,16 @@
         <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5">
         <v>34656.47</v>
@@ -815,16 +812,16 @@
         <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6">
         <v>50217.16</v>
@@ -847,16 +844,16 @@
         <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H7">
         <v>30</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7">
         <v>4462.45</v>
@@ -879,16 +876,16 @@
         <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8">
         <v>4360.16</v>
@@ -911,19 +908,19 @@
         <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H9">
         <v>30</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9">
-        <v>9929.08</v>
+        <v>4929.08</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -943,16 +940,16 @@
         <v>57</v>
       </c>
       <c r="F10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H10">
         <v>30</v>
       </c>
       <c r="I10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>9977.469999999999</v>
@@ -975,16 +972,16 @@
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J11">
         <v>6937.07</v>
@@ -1007,16 +1004,16 @@
         <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12">
         <v>30</v>
       </c>
       <c r="I12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J12">
         <v>5092.56</v>
@@ -1039,16 +1036,16 @@
         <v>58</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13">
         <v>22108.11</v>
@@ -1068,22 +1065,22 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H14">
         <v>45</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14">
-        <v>2971.19</v>
+        <v>10495.53</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1100,22 +1097,22 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>10495.53</v>
+        <v>9952.700000000001</v>
       </c>
     </row>
   </sheetData>
